--- a/tests/CWC_test.xlsx
+++ b/tests/CWC_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Doctorado\Repositorios\uncertainty-informed-decision-making\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5E0DB0-87E5-49CE-8269-2777544BF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CA56D1-3A03-4133-9393-A9B93BA6B289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F24D7121-59CB-449E-9C6F-2D6B2C8932A6}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CBD6DA-D360-4581-9F38-D0DD83B82E52}">
-  <dimension ref="A4:O16"/>
+  <dimension ref="A4:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
     <col min="4" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -468,11 +468,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -483,504 +483,504 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" ref="D5:M5" si="0">(1-$C5)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
         <v>5.9760228950059375E-3</v>
       </c>
       <c r="E5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>1.9841094744370298E-2</v>
       </c>
       <c r="F5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>5.6134762834133677E-2</v>
       </c>
       <c r="G5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>0.1353352832366127</v>
       </c>
       <c r="H5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>0.27803730045319408</v>
       </c>
       <c r="I5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>0.48675225595997157</v>
       </c>
       <c r="J5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>0.72614903707369072</v>
       </c>
       <c r="K5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>0.92311634638663587</v>
       </c>
       <c r="L5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M5" s="1">
-        <f>(1-$C5)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="0"/>
         <v>0.92311634638663587</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>0.1</v>
       </c>
       <c r="D6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(D4-(1-$B$5))^2)</f>
+        <f t="shared" ref="D6:M6" si="1">(1-$C6)*EXP(-$B$4*(D4-(1-$B$5))^2)</f>
         <v>5.3784206055053439E-3</v>
       </c>
       <c r="E6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(E4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>1.7856985269933269E-2</v>
       </c>
       <c r="F6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(F4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>5.0521286550720308E-2</v>
       </c>
       <c r="G6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(G4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.12180175491295143</v>
       </c>
       <c r="H6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(H4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.25023357040787469</v>
       </c>
       <c r="I6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(I4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.43807703036397444</v>
       </c>
       <c r="J6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(J4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.65353413336632171</v>
       </c>
       <c r="K6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(K4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.83080471174797232</v>
       </c>
       <c r="L6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(L4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="M6" s="1">
-        <f>(1-$C6)*EXP(-$B$4*(M4-(1-$B$5))^2)</f>
+        <f t="shared" si="1"/>
         <v>0.83080471174797232</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>0.2</v>
       </c>
       <c r="D7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" ref="D7:D15" si="2">(1-$C7)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
         <v>4.7808183160047502E-3</v>
       </c>
       <c r="E7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(E4-(1-$B$5))^2)</f>
+        <f t="shared" ref="E7:M7" si="3">(1-$C7)*EXP(-$B$4*(E4-(1-$B$5))^2)</f>
         <v>1.587287579549624E-2</v>
       </c>
       <c r="F7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(F4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>4.4907810267306947E-2</v>
       </c>
       <c r="G7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(G4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.10826822658929017</v>
       </c>
       <c r="H7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(H4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.22242984036255528</v>
       </c>
       <c r="I7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(I4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.38940180476797726</v>
       </c>
       <c r="J7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(J4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.5809192296589526</v>
       </c>
       <c r="K7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(K4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.73849307710930878</v>
       </c>
       <c r="L7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(L4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="M7" s="1">
-        <f>(1-$C7)*EXP(-$B$4*(M4-(1-$B$5))^2)</f>
+        <f t="shared" si="3"/>
         <v>0.73849307710930878</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>4.1832160265041557E-3</v>
       </c>
       <c r="E8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" ref="E8:M15" si="4">(1-$C8)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
         <v>1.3888766321059207E-2</v>
       </c>
       <c r="F8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>3.9294333983893572E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>9.4734698265628886E-2</v>
       </c>
       <c r="H8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.19462611031723584</v>
       </c>
       <c r="I8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.34072657917198007</v>
       </c>
       <c r="J8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.50830432595158348</v>
       </c>
       <c r="K8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.64618144247064502</v>
       </c>
       <c r="L8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="M8" s="1">
-        <f>(1-$C8)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.64618144247064502</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>0.4</v>
       </c>
       <c r="D9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>3.5856137370035624E-3</v>
       </c>
       <c r="E9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>1.1904656846622178E-2</v>
       </c>
       <c r="F9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>3.3680857700480203E-2</v>
       </c>
       <c r="G9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>8.1201169941967619E-2</v>
       </c>
       <c r="H9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.16682238027191645</v>
       </c>
       <c r="I9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.29205135357598294</v>
       </c>
       <c r="J9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.43568942224421442</v>
       </c>
       <c r="K9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.55386980783198148</v>
       </c>
       <c r="L9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M9" s="1">
-        <f>(1-$C9)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.55386980783198148</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>2.9880114475029688E-3</v>
       </c>
       <c r="E10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>9.9205473721851491E-3</v>
       </c>
       <c r="F10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>2.8067381417066838E-2</v>
       </c>
       <c r="G10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>6.7667641618306351E-2</v>
       </c>
       <c r="H10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.13901865022659704</v>
       </c>
       <c r="I10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.24337612797998578</v>
       </c>
       <c r="J10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.36307451853684536</v>
       </c>
       <c r="K10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.46155817319331793</v>
       </c>
       <c r="L10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="M10" s="1">
-        <f>(1-$C10)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.46155817319331793</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>0.6</v>
       </c>
       <c r="D11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>2.3904091580023751E-3</v>
       </c>
       <c r="E11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>7.9364378977481199E-3</v>
       </c>
       <c r="F11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>2.2453905133653473E-2</v>
       </c>
       <c r="G11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>5.4134113294645084E-2</v>
       </c>
       <c r="H11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.11121492018127764</v>
       </c>
       <c r="I11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.19470090238398863</v>
       </c>
       <c r="J11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.2904596148294763</v>
       </c>
       <c r="K11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.36924653855465439</v>
       </c>
       <c r="L11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="M11" s="1">
-        <f>(1-$C11)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.36924653855465439</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>0.7</v>
       </c>
       <c r="D12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>1.7928068685017814E-3</v>
       </c>
       <c r="E12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>5.95232842331109E-3</v>
       </c>
       <c r="F12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>1.6840428850240105E-2</v>
       </c>
       <c r="G12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>4.0600584970983816E-2</v>
       </c>
       <c r="H12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>8.3411190135958241E-2</v>
       </c>
       <c r="I12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.1460256767879915</v>
       </c>
       <c r="J12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.21784471112210724</v>
       </c>
       <c r="K12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.27693490391599079</v>
       </c>
       <c r="L12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="M12" s="1">
-        <f>(1-$C12)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.27693490391599079</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>0.8</v>
       </c>
       <c r="D13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>1.1952045790011873E-3</v>
       </c>
       <c r="E13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>3.9682189488740591E-3</v>
       </c>
       <c r="F13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>1.1226952566826733E-2</v>
       </c>
       <c r="G13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>2.7067056647322535E-2</v>
       </c>
       <c r="H13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>5.5607460090638806E-2</v>
       </c>
       <c r="I13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>9.7350451191994286E-2</v>
       </c>
       <c r="J13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.14522980741473812</v>
       </c>
       <c r="K13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.18462326927732714</v>
       </c>
       <c r="L13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M13" s="1">
-        <f>(1-$C13)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0.18462326927732714</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>0.9</v>
       </c>
       <c r="D14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>5.9760228950059367E-4</v>
       </c>
       <c r="E14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>1.9841094744370296E-3</v>
       </c>
       <c r="F14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>5.6134762834133666E-3</v>
       </c>
       <c r="G14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>1.3533528323661267E-2</v>
       </c>
       <c r="H14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>2.7803730045319403E-2</v>
       </c>
       <c r="I14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>4.8675225595997143E-2</v>
       </c>
       <c r="J14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>7.2614903707369061E-2</v>
       </c>
       <c r="K14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>9.231163463866357E-2</v>
       </c>
       <c r="L14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="M14" s="1">
-        <f>(1-$C14)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>9.231163463866357E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(D$4-(1-$B$5))^2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(E$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(F$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(G$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(H$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(I$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(J$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(K$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(L$4-(1-$B$5))^2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f>(1-$C15)*EXP(-$B$4*(M$4-(1-$B$5))^2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:M15">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D5:M5">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -991,8 +991,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:M5">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D6:M15">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
